--- a/Code/Results/Cases/Case_0_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_248/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.602512239140653</v>
+        <v>3.405752891157269</v>
       </c>
       <c r="D2">
-        <v>4.016719631620753</v>
+        <v>4.363120792079042</v>
       </c>
       <c r="E2">
-        <v>11.72540643048899</v>
+        <v>11.37321447006714</v>
       </c>
       <c r="F2">
-        <v>18.5933292602829</v>
+        <v>22.72240070235265</v>
       </c>
       <c r="G2">
-        <v>2.061645563011928</v>
+        <v>3.614682361324854</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.03512704190621</v>
+        <v>18.99795226744325</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.16645752508989</v>
+        <v>11.64681834076186</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.66204866220884</v>
+        <v>14.67633183042082</v>
       </c>
       <c r="N2">
-        <v>11.58264442889941</v>
+        <v>16.93502142271931</v>
       </c>
       <c r="O2">
-        <v>14.33860546874509</v>
+        <v>20.21510641877277</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.346236070308501</v>
+        <v>3.28883344543926</v>
       </c>
       <c r="D3">
-        <v>3.890783907718177</v>
+        <v>4.320569732506225</v>
       </c>
       <c r="E3">
-        <v>11.08949399341896</v>
+        <v>11.26614973879036</v>
       </c>
       <c r="F3">
-        <v>17.92750682225208</v>
+        <v>22.68770855210153</v>
       </c>
       <c r="G3">
-        <v>2.067043452266218</v>
+        <v>3.616738160184558</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.67236433452819</v>
+        <v>19.01050877108378</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.04860355855866</v>
+        <v>11.18046709010335</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.50902386610066</v>
+        <v>14.39765365074639</v>
       </c>
       <c r="N3">
-        <v>11.71350093000023</v>
+        <v>16.98145657472332</v>
       </c>
       <c r="O3">
-        <v>14.05362598701377</v>
+        <v>20.25071813394637</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.180767435012185</v>
+        <v>3.214178232495343</v>
       </c>
       <c r="D4">
-        <v>3.81092435917065</v>
+        <v>4.293895205800359</v>
       </c>
       <c r="E4">
-        <v>10.69494670091535</v>
+        <v>11.20452287219994</v>
       </c>
       <c r="F4">
-        <v>17.52684427629199</v>
+        <v>22.67387577960579</v>
       </c>
       <c r="G4">
-        <v>2.070458257898854</v>
+        <v>3.618067423836294</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.45993416472206</v>
+        <v>19.02370649679935</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.32409316802187</v>
+        <v>10.88501284462108</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.7624908831269</v>
+        <v>14.22702968079303</v>
       </c>
       <c r="N4">
-        <v>11.79739357252062</v>
+        <v>17.01175660176978</v>
       </c>
       <c r="O4">
-        <v>13.89222249740005</v>
+        <v>20.27831474234597</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.111320930061121</v>
+        <v>3.183061407480082</v>
       </c>
       <c r="D5">
-        <v>3.777773774392533</v>
+        <v>4.282892555894665</v>
       </c>
       <c r="E5">
-        <v>10.53333384255049</v>
+        <v>11.1804700447145</v>
       </c>
       <c r="F5">
-        <v>17.36583851228049</v>
+        <v>22.67011955852888</v>
       </c>
       <c r="G5">
-        <v>2.071875753109088</v>
+        <v>3.618626010040281</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.37601569257315</v>
+        <v>19.03046198997574</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.0192834511732</v>
+        <v>10.76249491872392</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.44853036082435</v>
+        <v>14.15771812157703</v>
       </c>
       <c r="N5">
-        <v>11.83246118827221</v>
+        <v>17.02455470398252</v>
       </c>
       <c r="O5">
-        <v>13.82983878910335</v>
+        <v>20.29099680558446</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.099668414358155</v>
+        <v>3.177853386292623</v>
       </c>
       <c r="D6">
-        <v>3.772233413457266</v>
+        <v>4.28105772220007</v>
       </c>
       <c r="E6">
-        <v>10.50645443499716</v>
+        <v>11.17654088038108</v>
       </c>
       <c r="F6">
-        <v>17.33924702493486</v>
+        <v>22.66960947359577</v>
       </c>
       <c r="G6">
-        <v>2.072112712403116</v>
+        <v>3.618719785192143</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.36224254327719</v>
+        <v>19.03166682603455</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.96809340929656</v>
+        <v>10.74202846931732</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.39580800525347</v>
+        <v>14.14622508109598</v>
       </c>
       <c r="N6">
-        <v>11.83833703733362</v>
+        <v>17.02670705848136</v>
       </c>
       <c r="O6">
-        <v>13.81968376794717</v>
+        <v>20.29318924338982</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.179838984446906</v>
+        <v>3.213761353782027</v>
       </c>
       <c r="D7">
-        <v>3.810479695168636</v>
+        <v>4.293747350000788</v>
       </c>
       <c r="E7">
-        <v>10.6927702116482</v>
+        <v>11.20419415953207</v>
       </c>
       <c r="F7">
-        <v>17.52466342428367</v>
+        <v>22.67381750474171</v>
       </c>
       <c r="G7">
-        <v>2.070477268867247</v>
+        <v>3.618074888623969</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.45879161842918</v>
+        <v>19.02379203124739</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.32002108155226</v>
+        <v>10.8833688559996</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.75829619699589</v>
+        <v>14.22609390470794</v>
       </c>
       <c r="N7">
-        <v>11.79786295421376</v>
+        <v>17.01192737591562</v>
       </c>
       <c r="O7">
-        <v>13.89136748664903</v>
+        <v>20.27847996876359</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.51584441910852</v>
+        <v>3.366048942981504</v>
       </c>
       <c r="D8">
-        <v>3.973840191040884</v>
+        <v>4.348566039128088</v>
       </c>
       <c r="E8">
-        <v>11.50710075877519</v>
+        <v>11.3354621339342</v>
       </c>
       <c r="F8">
-        <v>18.36218864228366</v>
+        <v>22.70889107660476</v>
       </c>
       <c r="G8">
-        <v>2.063486313190118</v>
+        <v>3.615377328597137</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.90794338626458</v>
+        <v>19.0011413507584</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.78894772247637</v>
+        <v>11.48800960831236</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.27246159086234</v>
+        <v>14.58020056589688</v>
       </c>
       <c r="N8">
-        <v>11.62702059937394</v>
+        <v>16.95066151911655</v>
       </c>
       <c r="O8">
-        <v>14.23751661667369</v>
+        <v>20.22619315186271</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.109652329796726</v>
+        <v>3.640924161902158</v>
       </c>
       <c r="D9">
-        <v>4.272907445545855</v>
+        <v>4.45149267734341</v>
       </c>
       <c r="E9">
-        <v>13.06477021981312</v>
+        <v>11.62419618043178</v>
       </c>
       <c r="F9">
-        <v>20.06033806547295</v>
+        <v>22.83671199944093</v>
       </c>
       <c r="G9">
-        <v>2.050542307672637</v>
+        <v>3.61061652728784</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.86774969242576</v>
+        <v>19.00035203348218</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.36666078343172</v>
+        <v>12.59478571171978</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.9382156740727</v>
+        <v>15.27428087514819</v>
       </c>
       <c r="N9">
-        <v>11.3207172367697</v>
+        <v>16.84467491170499</v>
       </c>
       <c r="O9">
-        <v>15.02450244615773</v>
+        <v>20.1693222717478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.505655415273806</v>
+        <v>3.827215889791427</v>
       </c>
       <c r="D10">
-        <v>4.478294183318178</v>
+        <v>4.524033182443152</v>
       </c>
       <c r="E10">
-        <v>14.38933107230775</v>
+        <v>11.85351900416002</v>
       </c>
       <c r="F10">
-        <v>21.33128085174304</v>
+        <v>22.96618839168923</v>
       </c>
       <c r="G10">
-        <v>2.041451309538189</v>
+        <v>3.607437867507929</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.61730797004405</v>
+        <v>19.02643063086854</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.07672029856639</v>
+        <v>13.35225490968668</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.71592154675965</v>
+        <v>15.77861400992806</v>
       </c>
       <c r="N10">
-        <v>11.11413004640717</v>
+        <v>16.77538621346867</v>
       </c>
       <c r="O10">
-        <v>15.66869522924221</v>
+        <v>20.15560036541045</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.677027122004452</v>
+        <v>3.908365020065501</v>
       </c>
       <c r="D11">
-        <v>4.568382879047939</v>
+        <v>4.556305290791151</v>
       </c>
       <c r="E11">
-        <v>14.97611588262696</v>
+        <v>11.961135119094</v>
       </c>
       <c r="F11">
-        <v>21.9127217287854</v>
+        <v>23.03267854186665</v>
       </c>
       <c r="G11">
-        <v>2.037395234113953</v>
+        <v>3.606060367171962</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.96718570260794</v>
+        <v>19.04407730754018</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.81518869509078</v>
+        <v>13.68349126087759</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.48647079490602</v>
+        <v>16.00575156833993</v>
       </c>
       <c r="N11">
-        <v>11.02441303828122</v>
+        <v>16.74571777656648</v>
       </c>
       <c r="O11">
-        <v>15.97597428302499</v>
+        <v>20.15548498789976</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.740660625133194</v>
+        <v>3.938563121533847</v>
       </c>
       <c r="D12">
-        <v>4.602000188289717</v>
+        <v>4.568416476342971</v>
       </c>
       <c r="E12">
-        <v>15.19544267572387</v>
+        <v>12.00232174528756</v>
       </c>
       <c r="F12">
-        <v>22.13325421426113</v>
+        <v>23.05893353664048</v>
       </c>
       <c r="G12">
-        <v>2.035869725698077</v>
+        <v>3.60554853633377</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.10090011300686</v>
+        <v>19.05158917499997</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.08920101863548</v>
+        <v>13.80691727569821</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.77287275431588</v>
+        <v>16.09134951303901</v>
       </c>
       <c r="N12">
-        <v>10.99107818090704</v>
+        <v>16.73474860293804</v>
       </c>
       <c r="O12">
-        <v>16.09436634443843</v>
+        <v>20.15632387292947</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.72701207337538</v>
+        <v>3.932083256702676</v>
       </c>
       <c r="D13">
-        <v>4.594782458410826</v>
+        <v>4.565813067161997</v>
       </c>
       <c r="E13">
-        <v>15.14833269159018</v>
+        <v>11.99343276579177</v>
       </c>
       <c r="F13">
-        <v>22.08574446005952</v>
+        <v>23.05323142947287</v>
       </c>
       <c r="G13">
-        <v>2.036197823460351</v>
+        <v>3.605658333254678</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.07204870664483</v>
+        <v>19.04993451489716</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.03043717088735</v>
+        <v>13.78042575518468</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.71142899376814</v>
+        <v>16.0729341922999</v>
       </c>
       <c r="N13">
-        <v>10.99822855861507</v>
+        <v>16.73709920654881</v>
       </c>
       <c r="O13">
-        <v>16.06877832046454</v>
+        <v>20.15610393454313</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.682287554852949</v>
+        <v>3.91086015907316</v>
       </c>
       <c r="D14">
-        <v>4.571158649563504</v>
+        <v>4.557303909388506</v>
       </c>
       <c r="E14">
-        <v>14.99421697294224</v>
+        <v>11.96451508217674</v>
       </c>
       <c r="F14">
-        <v>21.93085856267105</v>
+        <v>23.03481707155681</v>
       </c>
       <c r="G14">
-        <v>2.037269526319826</v>
+        <v>3.60601806244599</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.97816223852232</v>
+        <v>19.04467870588416</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.83784440519403</v>
+        <v>13.69368625413019</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.51014066580716</v>
+        <v>16.01280253491909</v>
       </c>
       <c r="N14">
-        <v>11.02165758828949</v>
+        <v>16.74481001599506</v>
       </c>
       <c r="O14">
-        <v>15.98567381675663</v>
+        <v>20.15553630913365</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.654728297919217</v>
+        <v>3.897790816731351</v>
       </c>
       <c r="D15">
-        <v>4.55662316374791</v>
+        <v>4.552077389592796</v>
       </c>
       <c r="E15">
-        <v>14.89944569537408</v>
+        <v>11.94685760447393</v>
       </c>
       <c r="F15">
-        <v>21.83602947681129</v>
+        <v>23.02367747642891</v>
       </c>
       <c r="G15">
-        <v>2.037927304203632</v>
+        <v>3.606239681561247</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.92081186990982</v>
+        <v>19.0415673090023</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.71914404400389</v>
+        <v>13.64029217810919</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.38614703060441</v>
+        <v>15.97591377286345</v>
       </c>
       <c r="N15">
-        <v>11.0360926109275</v>
+        <v>16.74956768351159</v>
       </c>
       <c r="O15">
-        <v>15.93503416123525</v>
+        <v>20.15530359280968</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.494279303850755</v>
+        <v>3.82183898421283</v>
       </c>
       <c r="D16">
-        <v>4.472337934706578</v>
+        <v>4.521909063353882</v>
       </c>
       <c r="E16">
-        <v>14.35057443511893</v>
+        <v>11.84654902807544</v>
       </c>
       <c r="F16">
-        <v>21.29333759075328</v>
+        <v>22.96199461895393</v>
       </c>
       <c r="G16">
-        <v>2.041717899873817</v>
+        <v>3.607529264277773</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.59461667819019</v>
+        <v>19.02539359045253</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.02766934482635</v>
+        <v>13.33033160597131</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.66480490310532</v>
+        <v>15.76371663084941</v>
       </c>
       <c r="N16">
-        <v>11.12008116822992</v>
+        <v>16.77736231736156</v>
       </c>
       <c r="O16">
-        <v>15.64889894063391</v>
+        <v>20.1557313420005</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.393601503647369</v>
+        <v>3.774313254794385</v>
       </c>
       <c r="D17">
-        <v>4.419762931658554</v>
+        <v>4.503211964443754</v>
       </c>
       <c r="E17">
-        <v>14.00861298476756</v>
+        <v>11.78582952081091</v>
       </c>
       <c r="F17">
-        <v>20.96116111243765</v>
+        <v>22.92608836935137</v>
       </c>
       <c r="G17">
-        <v>2.044062980386408</v>
+        <v>3.608337887328032</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.39674283092581</v>
+        <v>19.01695155119998</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.59339649301085</v>
+        <v>13.13669756235144</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.2125822640925</v>
+        <v>15.63289283766983</v>
       </c>
       <c r="N17">
-        <v>11.17271428514323</v>
+        <v>16.79488716222658</v>
       </c>
       <c r="O17">
-        <v>15.47699883815067</v>
+        <v>20.15756431129196</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.334868419051183</v>
+        <v>3.746639968735194</v>
       </c>
       <c r="D18">
-        <v>4.38920938491574</v>
+        <v>4.492389757532822</v>
       </c>
       <c r="E18">
-        <v>13.80996247980511</v>
+        <v>11.75121791475047</v>
       </c>
       <c r="F18">
-        <v>20.77041631981993</v>
+        <v>22.90615153827176</v>
       </c>
       <c r="G18">
-        <v>2.045419351599449</v>
+        <v>3.60880943528282</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.28377160434462</v>
+        <v>19.0126404660126</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.33989823723829</v>
+        <v>13.02407311251049</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.94887975132831</v>
+        <v>15.55743609779812</v>
       </c>
       <c r="N18">
-        <v>11.20338669694643</v>
+        <v>16.80514128064501</v>
       </c>
       <c r="O18">
-        <v>15.37946696538462</v>
+        <v>20.15919522320148</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.314840602586448</v>
+        <v>3.737212727064418</v>
       </c>
       <c r="D19">
-        <v>4.378811129587635</v>
+        <v>4.488713998387944</v>
       </c>
       <c r="E19">
-        <v>13.74236245933851</v>
+        <v>11.7395538985816</v>
       </c>
       <c r="F19">
-        <v>20.70589147511419</v>
+        <v>22.8995245781684</v>
       </c>
       <c r="G19">
-        <v>2.045879920010842</v>
+        <v>3.608970202527476</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.2456677338795</v>
+        <v>19.01127438502986</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.25342869861348</v>
+        <v>12.98572838641502</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.85897421401436</v>
+        <v>15.53185428995272</v>
       </c>
       <c r="N19">
-        <v>11.21383967277666</v>
+        <v>16.8086431023489</v>
       </c>
       <c r="O19">
-        <v>15.34667504922388</v>
+        <v>20.1598464002881</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.404404310203394</v>
+        <v>3.779407514145096</v>
       </c>
       <c r="D20">
-        <v>4.425392235030519</v>
+        <v>4.505209390631258</v>
       </c>
       <c r="E20">
-        <v>14.04521779728856</v>
+        <v>11.79226113961785</v>
       </c>
       <c r="F20">
-        <v>20.99649028321838</v>
+        <v>22.92983670162479</v>
       </c>
       <c r="G20">
-        <v>2.043812568821754</v>
+        <v>3.608251140900876</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.41772028341109</v>
+        <v>19.01779387432939</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.64000988900676</v>
+        <v>13.15744041435241</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.26109364263741</v>
+        <v>15.64684165769143</v>
       </c>
       <c r="N20">
-        <v>11.16706990123695</v>
+        <v>16.79300357850773</v>
       </c>
       <c r="O20">
-        <v>15.49515926938366</v>
+        <v>20.1573094952166</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.695458444589945</v>
+        <v>3.917108420923444</v>
       </c>
       <c r="D21">
-        <v>4.578111153310518</v>
+        <v>4.559806268128638</v>
       </c>
       <c r="E21">
-        <v>15.03956158026937</v>
+        <v>11.97299742450691</v>
       </c>
       <c r="F21">
-        <v>21.97634351550602</v>
+        <v>23.04019672446057</v>
       </c>
       <c r="G21">
-        <v>2.036954466130989</v>
+        <v>3.605912135725485</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.00570617015911</v>
+        <v>19.04619997549429</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.89456597299151</v>
+        <v>13.71921882683321</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.56940935648223</v>
+        <v>16.03047655685742</v>
       </c>
       <c r="N21">
-        <v>11.01475834289241</v>
+        <v>16.74253796017729</v>
       </c>
       <c r="O21">
-        <v>16.01002857621097</v>
+        <v>20.15567907298936</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.878329646229737</v>
+        <v>4.004001730630779</v>
       </c>
       <c r="D22">
-        <v>4.675016880362331</v>
+        <v>4.594847645697819</v>
       </c>
       <c r="E22">
-        <v>15.67272242138921</v>
+        <v>12.09363436769966</v>
       </c>
       <c r="F22">
-        <v>22.61876000978086</v>
+        <v>23.11859042816574</v>
       </c>
       <c r="G22">
-        <v>2.03253263495556</v>
+        <v>3.604440551761814</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.39710076716865</v>
+        <v>19.06959799987243</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.68170282367306</v>
+        <v>14.07464891909435</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.39311289613168</v>
+        <v>16.27875404662951</v>
       </c>
       <c r="N22">
-        <v>10.91895362625146</v>
+        <v>16.7111037336064</v>
       </c>
       <c r="O22">
-        <v>16.35836593097001</v>
+        <v>20.15975801053102</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.781399557904035</v>
+        <v>3.957913203140938</v>
       </c>
       <c r="D23">
-        <v>4.623567179117063</v>
+        <v>4.576205663803183</v>
       </c>
       <c r="E23">
-        <v>15.33627979850088</v>
+        <v>12.02903114642216</v>
       </c>
       <c r="F23">
-        <v>22.27573655770984</v>
+        <v>23.0761822346877</v>
       </c>
       <c r="G23">
-        <v>2.034887474793601</v>
+        <v>3.605220756345312</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.18757131048739</v>
+        <v>19.05666878767752</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.26457689461951</v>
+        <v>13.88604776163826</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.95632194243359</v>
+        <v>16.14649486180766</v>
       </c>
       <c r="N23">
-        <v>10.96973453260272</v>
+        <v>16.72773932459424</v>
       </c>
       <c r="O23">
-        <v>16.17137237325195</v>
+        <v>20.15710996452474</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.399523015367834</v>
+        <v>3.777105488924119</v>
       </c>
       <c r="D24">
-        <v>4.422848245706809</v>
+        <v>4.504306581225334</v>
       </c>
       <c r="E24">
-        <v>14.02867516233207</v>
+        <v>11.78935247713716</v>
       </c>
       <c r="F24">
-        <v>20.98051724592656</v>
+        <v>22.92813987985518</v>
       </c>
       <c r="G24">
-        <v>2.043925754421313</v>
+        <v>3.608290338210973</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.40823391489194</v>
+        <v>19.01741137045833</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.61894790231692</v>
+        <v>13.14806661854417</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.23917322287257</v>
+        <v>15.64053615084649</v>
       </c>
       <c r="N24">
-        <v>11.16962044295864</v>
+        <v>16.79385458952776</v>
       </c>
       <c r="O24">
-        <v>15.48694490118429</v>
+        <v>20.1574228999811</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.956058185150307</v>
+        <v>3.569237791023917</v>
       </c>
       <c r="D25">
-        <v>4.194431756323679</v>
+        <v>4.424168394244588</v>
       </c>
       <c r="E25">
-        <v>12.64836905641379</v>
+        <v>11.54292204000557</v>
       </c>
       <c r="F25">
-        <v>19.59615287969153</v>
+        <v>22.79584794211297</v>
       </c>
       <c r="G25">
-        <v>2.053966807426464</v>
+        <v>3.611848164434801</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.60002822583342</v>
+        <v>18.99588487817445</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.70170455360206</v>
+        <v>12.30467086564377</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.24915192014601</v>
+        <v>15.08711920701956</v>
       </c>
       <c r="N25">
-        <v>11.4004173625351</v>
+        <v>16.87183690178447</v>
       </c>
       <c r="O25">
-        <v>14.79998514205218</v>
+        <v>20.17979303731479</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_248/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.405752891157269</v>
+        <v>4.602512239140736</v>
       </c>
       <c r="D2">
-        <v>4.363120792079042</v>
+        <v>4.016719631620753</v>
       </c>
       <c r="E2">
-        <v>11.37321447006714</v>
+        <v>11.72540643048899</v>
       </c>
       <c r="F2">
-        <v>22.72240070235265</v>
+        <v>18.59332926028289</v>
       </c>
       <c r="G2">
-        <v>3.614682361324854</v>
+        <v>2.061645563011795</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.99795226744325</v>
+        <v>14.03512704190618</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.64681834076186</v>
+        <v>18.16645752508986</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.67633183042082</v>
+        <v>17.66204866220886</v>
       </c>
       <c r="N2">
-        <v>16.93502142271931</v>
+        <v>11.58264442889938</v>
       </c>
       <c r="O2">
-        <v>20.21510641877277</v>
+        <v>14.33860546874509</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.28883344543926</v>
+        <v>4.346236070308414</v>
       </c>
       <c r="D3">
-        <v>4.320569732506225</v>
+        <v>3.890783907718137</v>
       </c>
       <c r="E3">
-        <v>11.26614973879036</v>
+        <v>11.08949399341899</v>
       </c>
       <c r="F3">
-        <v>22.68770855210153</v>
+        <v>17.92750682225208</v>
       </c>
       <c r="G3">
-        <v>3.616738160184558</v>
+        <v>2.06704345226622</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.01050877108378</v>
+        <v>13.67236433452818</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.18046709010335</v>
+        <v>17.04860355855866</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.39765365074639</v>
+        <v>16.50902386610064</v>
       </c>
       <c r="N3">
-        <v>16.98145657472332</v>
+        <v>11.7135009300002</v>
       </c>
       <c r="O3">
-        <v>20.25071813394637</v>
+        <v>14.05362598701372</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.214178232495343</v>
+        <v>4.18076743501217</v>
       </c>
       <c r="D4">
-        <v>4.293895205800359</v>
+        <v>3.81092435917053</v>
       </c>
       <c r="E4">
-        <v>11.20452287219994</v>
+        <v>10.69494670091538</v>
       </c>
       <c r="F4">
-        <v>22.67387577960579</v>
+        <v>17.52684427629179</v>
       </c>
       <c r="G4">
-        <v>3.618067423836294</v>
+        <v>2.070458257899122</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.02370649679935</v>
+        <v>13.45993416472189</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.88501284462108</v>
+        <v>16.32409316802196</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.22702968079303</v>
+        <v>15.76249088312694</v>
       </c>
       <c r="N4">
-        <v>17.01175660176978</v>
+        <v>11.79739357252055</v>
       </c>
       <c r="O4">
-        <v>20.27831474234597</v>
+        <v>13.89222249739987</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.183061407480082</v>
+        <v>4.111320930061297</v>
       </c>
       <c r="D5">
-        <v>4.282892555894665</v>
+        <v>3.77777377439258</v>
       </c>
       <c r="E5">
-        <v>11.1804700447145</v>
+        <v>10.53333384255051</v>
       </c>
       <c r="F5">
-        <v>22.67011955852888</v>
+        <v>17.36583851228055</v>
       </c>
       <c r="G5">
-        <v>3.618626010040281</v>
+        <v>2.071875753109088</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.03046198997574</v>
+        <v>13.37601569257317</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.76249491872392</v>
+        <v>16.01928345117312</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.15771812157703</v>
+        <v>15.44853036082429</v>
       </c>
       <c r="N5">
-        <v>17.02455470398252</v>
+        <v>11.83246118827221</v>
       </c>
       <c r="O5">
-        <v>20.29099680558446</v>
+        <v>13.8298387891034</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.177853386292623</v>
+        <v>4.099668414358169</v>
       </c>
       <c r="D6">
-        <v>4.28105772220007</v>
+        <v>3.772233413457392</v>
       </c>
       <c r="E6">
-        <v>11.17654088038108</v>
+        <v>10.5064544349972</v>
       </c>
       <c r="F6">
-        <v>22.66960947359577</v>
+        <v>17.33924702493465</v>
       </c>
       <c r="G6">
-        <v>3.618719785192143</v>
+        <v>2.072112712402982</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.03166682603455</v>
+        <v>13.36224254327703</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.74202846931732</v>
+        <v>15.96809340929662</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.14622508109598</v>
+        <v>15.3958080052535</v>
       </c>
       <c r="N6">
-        <v>17.02670705848136</v>
+        <v>11.83833703733356</v>
       </c>
       <c r="O6">
-        <v>20.29318924338982</v>
+        <v>13.81968376794699</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.213761353782027</v>
+        <v>4.179838984446832</v>
       </c>
       <c r="D7">
-        <v>4.293747350000788</v>
+        <v>3.810479695168641</v>
       </c>
       <c r="E7">
-        <v>11.20419415953207</v>
+        <v>10.69277021164818</v>
       </c>
       <c r="F7">
-        <v>22.67381750474171</v>
+        <v>17.52466342428367</v>
       </c>
       <c r="G7">
-        <v>3.618074888623969</v>
+        <v>2.070477268866979</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.02379203124739</v>
+        <v>13.45879161842918</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.8833688559996</v>
+        <v>16.32002108155219</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.22609390470794</v>
+        <v>15.75829619699587</v>
       </c>
       <c r="N7">
-        <v>17.01192737591562</v>
+        <v>11.79786295421376</v>
       </c>
       <c r="O7">
-        <v>20.27847996876359</v>
+        <v>13.89136748664905</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.366048942981504</v>
+        <v>4.51584441910852</v>
       </c>
       <c r="D8">
-        <v>4.348566039128088</v>
+        <v>3.973840191040655</v>
       </c>
       <c r="E8">
-        <v>11.3354621339342</v>
+        <v>11.50710075877516</v>
       </c>
       <c r="F8">
-        <v>22.70889107660476</v>
+        <v>18.36218864228369</v>
       </c>
       <c r="G8">
-        <v>3.615377328597137</v>
+        <v>2.063486313190116</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.0011413507584</v>
+        <v>13.90794338626458</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.48800960831236</v>
+        <v>17.78894772247641</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.58020056589688</v>
+        <v>17.27246159086237</v>
       </c>
       <c r="N8">
-        <v>16.95066151911655</v>
+        <v>11.62702059937393</v>
       </c>
       <c r="O8">
-        <v>20.22619315186271</v>
+        <v>14.23751661667369</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.640924161902158</v>
+        <v>5.10965232979685</v>
       </c>
       <c r="D9">
-        <v>4.45149267734341</v>
+        <v>4.272907445545797</v>
       </c>
       <c r="E9">
-        <v>11.62419618043178</v>
+        <v>13.0647702198131</v>
       </c>
       <c r="F9">
-        <v>22.83671199944093</v>
+        <v>20.06033806547295</v>
       </c>
       <c r="G9">
-        <v>3.61061652728784</v>
+        <v>2.05054230767237</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.00035203348218</v>
+        <v>14.86774969242574</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.59478571171978</v>
+        <v>20.36666078343174</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.27428087514819</v>
+        <v>19.93821567407274</v>
       </c>
       <c r="N9">
-        <v>16.84467491170499</v>
+        <v>11.32071723676963</v>
       </c>
       <c r="O9">
-        <v>20.1693222717478</v>
+        <v>15.02450244615772</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.827215889791427</v>
+        <v>5.505655415273806</v>
       </c>
       <c r="D10">
-        <v>4.524033182443152</v>
+        <v>4.478294183318222</v>
       </c>
       <c r="E10">
-        <v>11.85351900416002</v>
+        <v>14.38933107230773</v>
       </c>
       <c r="F10">
-        <v>22.96618839168923</v>
+        <v>21.33128085174299</v>
       </c>
       <c r="G10">
-        <v>3.607437867507929</v>
+        <v>2.041451309538189</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.02643063086854</v>
+        <v>15.61730797004403</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.35225490968668</v>
+        <v>22.07672029856635</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.77861400992806</v>
+        <v>21.71592154675962</v>
       </c>
       <c r="N10">
-        <v>16.77538621346867</v>
+        <v>11.11413004640715</v>
       </c>
       <c r="O10">
-        <v>20.15560036541045</v>
+        <v>15.6686952292422</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.908365020065501</v>
+        <v>5.677027122004395</v>
       </c>
       <c r="D11">
-        <v>4.556305290791151</v>
+        <v>4.568382879048034</v>
       </c>
       <c r="E11">
-        <v>11.961135119094</v>
+        <v>14.97611588262692</v>
       </c>
       <c r="F11">
-        <v>23.03267854186665</v>
+        <v>21.91272172878538</v>
       </c>
       <c r="G11">
-        <v>3.606060367171962</v>
+        <v>2.037395234113687</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.04407730754018</v>
+        <v>15.96718570260794</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.68349126087759</v>
+        <v>22.81518869509077</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.00575156833993</v>
+        <v>22.48647079490602</v>
       </c>
       <c r="N11">
-        <v>16.74571777656648</v>
+        <v>11.02441303828126</v>
       </c>
       <c r="O11">
-        <v>20.15548498789976</v>
+        <v>15.97597428302498</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.938563121533847</v>
+        <v>5.740660625133124</v>
       </c>
       <c r="D12">
-        <v>4.568416476342971</v>
+        <v>4.602000188289615</v>
       </c>
       <c r="E12">
-        <v>12.00232174528756</v>
+        <v>15.19544267572384</v>
       </c>
       <c r="F12">
-        <v>23.05893353664048</v>
+        <v>22.1332542142611</v>
       </c>
       <c r="G12">
-        <v>3.60554853633377</v>
+        <v>2.03586972569821</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.05158917499997</v>
+        <v>16.10090011300683</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.80691727569821</v>
+        <v>23.08920101863555</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.09134951303901</v>
+        <v>22.7728727543159</v>
       </c>
       <c r="N12">
-        <v>16.73474860293804</v>
+        <v>10.991078180907</v>
       </c>
       <c r="O12">
-        <v>20.15632387292947</v>
+        <v>16.09436634443838</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.932083256702676</v>
+        <v>5.727012073375358</v>
       </c>
       <c r="D13">
-        <v>4.565813067161997</v>
+        <v>4.594782458410826</v>
       </c>
       <c r="E13">
-        <v>11.99343276579177</v>
+        <v>15.1483326915902</v>
       </c>
       <c r="F13">
-        <v>23.05323142947287</v>
+        <v>22.08574446005949</v>
       </c>
       <c r="G13">
-        <v>3.605658333254678</v>
+        <v>2.036197823460215</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.04993451489716</v>
+        <v>16.07204870664479</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.78042575518468</v>
+        <v>23.03043717088739</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.0729341922999</v>
+        <v>22.71142899376818</v>
       </c>
       <c r="N13">
-        <v>16.73709920654881</v>
+        <v>10.99822855861505</v>
       </c>
       <c r="O13">
-        <v>20.15610393454313</v>
+        <v>16.06877832046449</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.91086015907316</v>
+        <v>5.682287554852934</v>
       </c>
       <c r="D14">
-        <v>4.557303909388506</v>
+        <v>4.571158649563371</v>
       </c>
       <c r="E14">
-        <v>11.96451508217674</v>
+        <v>14.99421697294223</v>
       </c>
       <c r="F14">
-        <v>23.03481707155681</v>
+        <v>21.93085856267104</v>
       </c>
       <c r="G14">
-        <v>3.60601806244599</v>
+        <v>2.037269526319959</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.04467870588416</v>
+        <v>15.97816223852228</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.69368625413019</v>
+        <v>22.83784440519405</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.01280253491909</v>
+        <v>22.51014066580718</v>
       </c>
       <c r="N14">
-        <v>16.74481001599506</v>
+        <v>11.02165758828945</v>
       </c>
       <c r="O14">
-        <v>20.15553630913365</v>
+        <v>15.98567381675657</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.897790816731351</v>
+        <v>5.654728297919148</v>
       </c>
       <c r="D15">
-        <v>4.552077389592796</v>
+        <v>4.556623163747809</v>
       </c>
       <c r="E15">
-        <v>11.94685760447393</v>
+        <v>14.89944569537408</v>
       </c>
       <c r="F15">
-        <v>23.02367747642891</v>
+        <v>21.83602947681131</v>
       </c>
       <c r="G15">
-        <v>3.606239681561247</v>
+        <v>2.037927304203901</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.0415673090023</v>
+        <v>15.9208118699098</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.64029217810919</v>
+        <v>22.71914404400393</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.97591377286345</v>
+        <v>22.38614703060444</v>
       </c>
       <c r="N15">
-        <v>16.74956768351159</v>
+        <v>11.03609261092746</v>
       </c>
       <c r="O15">
-        <v>20.15530359280968</v>
+        <v>15.93503416123522</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.82183898421283</v>
+        <v>5.494279303850748</v>
       </c>
       <c r="D16">
-        <v>4.521909063353882</v>
+        <v>4.472337934706636</v>
       </c>
       <c r="E16">
-        <v>11.84654902807544</v>
+        <v>14.35057443511893</v>
       </c>
       <c r="F16">
-        <v>22.96199461895393</v>
+        <v>21.29333759075326</v>
       </c>
       <c r="G16">
-        <v>3.607529264277773</v>
+        <v>2.041717899873816</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.02539359045253</v>
+        <v>15.59461667819015</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.33033160597131</v>
+        <v>22.02766934482639</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.76371663084941</v>
+        <v>21.66480490310537</v>
       </c>
       <c r="N16">
-        <v>16.77736231736156</v>
+        <v>11.12008116822989</v>
       </c>
       <c r="O16">
-        <v>20.1557313420005</v>
+        <v>15.64889894063386</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.774313254794385</v>
+        <v>5.393601503647341</v>
       </c>
       <c r="D17">
-        <v>4.503211964443754</v>
+        <v>4.419762931658457</v>
       </c>
       <c r="E17">
-        <v>11.78582952081091</v>
+        <v>14.0086129847676</v>
       </c>
       <c r="F17">
-        <v>22.92608836935137</v>
+        <v>20.9611611124377</v>
       </c>
       <c r="G17">
-        <v>3.608337887328032</v>
+        <v>2.044062980386411</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.01695155119998</v>
+        <v>15.39674283092584</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.13669756235144</v>
+        <v>21.59339649301081</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.63289283766983</v>
+        <v>21.21258226409248</v>
       </c>
       <c r="N17">
-        <v>16.79488716222658</v>
+        <v>11.17271428514319</v>
       </c>
       <c r="O17">
-        <v>20.15756431129196</v>
+        <v>15.47699883815071</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.746639968735194</v>
+        <v>5.334868419051246</v>
       </c>
       <c r="D18">
-        <v>4.492389757532822</v>
+        <v>4.389209384915793</v>
       </c>
       <c r="E18">
-        <v>11.75121791475047</v>
+        <v>13.80996247980511</v>
       </c>
       <c r="F18">
-        <v>22.90615153827176</v>
+        <v>20.77041631981987</v>
       </c>
       <c r="G18">
-        <v>3.60880943528282</v>
+        <v>2.045419351599448</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.0126404660126</v>
+        <v>15.28377160434457</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.02407311251049</v>
+        <v>21.33989823723833</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.55743609779812</v>
+        <v>20.94887975132833</v>
       </c>
       <c r="N18">
-        <v>16.80514128064501</v>
+        <v>11.2033866969464</v>
       </c>
       <c r="O18">
-        <v>20.15919522320148</v>
+        <v>15.37946696538455</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.737212727064418</v>
+        <v>5.314840602586282</v>
       </c>
       <c r="D19">
-        <v>4.488713998387944</v>
+        <v>4.37881112958755</v>
       </c>
       <c r="E19">
-        <v>11.7395538985816</v>
+        <v>13.74236245933846</v>
       </c>
       <c r="F19">
-        <v>22.8995245781684</v>
+        <v>20.70589147511419</v>
       </c>
       <c r="G19">
-        <v>3.608970202527476</v>
+        <v>2.045879920010976</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.01127438502986</v>
+        <v>15.24566773387949</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.98572838641502</v>
+        <v>21.25342869861345</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.53185428995272</v>
+        <v>20.85897421401434</v>
       </c>
       <c r="N19">
-        <v>16.8086431023489</v>
+        <v>11.21383967277663</v>
       </c>
       <c r="O19">
-        <v>20.1598464002881</v>
+        <v>15.34667504922387</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.779407514145096</v>
+        <v>5.404404310203308</v>
       </c>
       <c r="D20">
-        <v>4.505209390631258</v>
+        <v>4.425392235030435</v>
       </c>
       <c r="E20">
-        <v>11.79226113961785</v>
+        <v>14.04521779728852</v>
       </c>
       <c r="F20">
-        <v>22.92983670162479</v>
+        <v>20.99649028321841</v>
       </c>
       <c r="G20">
-        <v>3.608251140900876</v>
+        <v>2.043812568821754</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.01779387432939</v>
+        <v>15.4177202834111</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.15744041435241</v>
+        <v>21.64000988900674</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.64684165769143</v>
+        <v>21.26109364263737</v>
       </c>
       <c r="N20">
-        <v>16.79300357850773</v>
+        <v>11.16706990123694</v>
       </c>
       <c r="O20">
-        <v>20.1573094952166</v>
+        <v>15.49515926938365</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.917108420923444</v>
+        <v>5.695458444589883</v>
       </c>
       <c r="D21">
-        <v>4.559806268128638</v>
+        <v>4.578111153310442</v>
       </c>
       <c r="E21">
-        <v>11.97299742450691</v>
+        <v>15.03956158026937</v>
       </c>
       <c r="F21">
-        <v>23.04019672446057</v>
+        <v>21.97634351550598</v>
       </c>
       <c r="G21">
-        <v>3.605912135725485</v>
+        <v>2.036954466130853</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.04619997549429</v>
+        <v>16.00570617015908</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.71921882683321</v>
+        <v>22.89456597299155</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.03047655685742</v>
+        <v>22.56940935648225</v>
       </c>
       <c r="N21">
-        <v>16.74253796017729</v>
+        <v>11.01475834289239</v>
       </c>
       <c r="O21">
-        <v>20.15567907298936</v>
+        <v>16.01002857621092</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.004001730630779</v>
+        <v>5.878329646229745</v>
       </c>
       <c r="D22">
-        <v>4.594847645697819</v>
+        <v>4.675016880362282</v>
       </c>
       <c r="E22">
-        <v>12.09363436769966</v>
+        <v>15.6727224213892</v>
       </c>
       <c r="F22">
-        <v>23.11859042816574</v>
+        <v>22.61876000978079</v>
       </c>
       <c r="G22">
-        <v>3.604440551761814</v>
+        <v>2.032532634955693</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.06959799987243</v>
+        <v>16.39710076716859</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.07464891909435</v>
+        <v>23.68170282367311</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.27875404662951</v>
+        <v>23.3931128961317</v>
       </c>
       <c r="N22">
-        <v>16.7111037336064</v>
+        <v>10.91895362625144</v>
       </c>
       <c r="O22">
-        <v>20.15975801053102</v>
+        <v>16.35836593096993</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.957913203140938</v>
+        <v>5.78139955790401</v>
       </c>
       <c r="D23">
-        <v>4.576205663803183</v>
+        <v>4.623567179117051</v>
       </c>
       <c r="E23">
-        <v>12.02903114642216</v>
+        <v>15.33627979850083</v>
       </c>
       <c r="F23">
-        <v>23.0761822346877</v>
+        <v>22.27573655770983</v>
       </c>
       <c r="G23">
-        <v>3.605220756345312</v>
+        <v>2.034887474793734</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.05666878767752</v>
+        <v>16.18757131048739</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.88604776163826</v>
+        <v>23.26457689461953</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.14649486180766</v>
+        <v>22.95632194243359</v>
       </c>
       <c r="N23">
-        <v>16.72773932459424</v>
+        <v>10.96973453260272</v>
       </c>
       <c r="O23">
-        <v>20.15710996452474</v>
+        <v>16.17137237325194</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.777105488924119</v>
+        <v>5.399523015367834</v>
       </c>
       <c r="D24">
-        <v>4.504306581225334</v>
+        <v>4.422848245706771</v>
       </c>
       <c r="E24">
-        <v>11.78935247713716</v>
+        <v>14.02867516233205</v>
       </c>
       <c r="F24">
-        <v>22.92813987985518</v>
+        <v>20.98051724592645</v>
       </c>
       <c r="G24">
-        <v>3.608290338210973</v>
+        <v>2.04392575442118</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.01741137045833</v>
+        <v>15.40823391489185</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.14806661854417</v>
+        <v>21.61894790231702</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.64053615084649</v>
+        <v>21.23917322287263</v>
       </c>
       <c r="N24">
-        <v>16.79385458952776</v>
+        <v>11.16962044295858</v>
       </c>
       <c r="O24">
-        <v>20.1574228999811</v>
+        <v>15.48694490118418</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.569237791023917</v>
+        <v>4.956058185150157</v>
       </c>
       <c r="D25">
-        <v>4.424168394244588</v>
+        <v>4.194431756323572</v>
       </c>
       <c r="E25">
-        <v>11.54292204000557</v>
+        <v>12.64836905641381</v>
       </c>
       <c r="F25">
-        <v>22.79584794211297</v>
+        <v>19.59615287969147</v>
       </c>
       <c r="G25">
-        <v>3.611848164434801</v>
+        <v>2.053966807426464</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.99588487817445</v>
+        <v>14.60002822583342</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.30467086564377</v>
+        <v>19.70170455360212</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.08711920701956</v>
+        <v>19.24915192014603</v>
       </c>
       <c r="N25">
-        <v>16.87183690178447</v>
+        <v>11.40041736253507</v>
       </c>
       <c r="O25">
-        <v>20.17979303731479</v>
+        <v>14.79998514205213</v>
       </c>
     </row>
   </sheetData>
